--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NA_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,43 +885,43 @@
     <t>H</t>
   </si>
   <si>
-    <t>H3 - Elektriciteit 1</t>
+    <t>H1 - Beweging</t>
   </si>
   <si>
     <t>startJaar</t>
   </si>
   <si>
-    <t>Automaten</t>
+    <t>H6 - Functionele materialen</t>
+  </si>
+  <si>
+    <t>D2, I2</t>
+  </si>
+  <si>
+    <t>cid</t>
+  </si>
+  <si>
+    <t>H1, 3 en 6 - Kracht, beweging en stoffen</t>
+  </si>
+  <si>
+    <t>eindJaar</t>
+  </si>
+  <si>
+    <t>H2 - Elektriciteit</t>
+  </si>
+  <si>
+    <t>vandaag</t>
+  </si>
+  <si>
+    <t>Fysische informatica</t>
   </si>
   <si>
     <t>G2, I1, I3</t>
   </si>
   <si>
-    <t>cid</t>
-  </si>
-  <si>
-    <t>H1 en 2  - Bewegen</t>
-  </si>
-  <si>
-    <t>eindJaar</t>
-  </si>
-  <si>
-    <t>H3, 6 en 9 - Elektriciteit en licht</t>
-  </si>
-  <si>
-    <t>B3, G1</t>
-  </si>
-  <si>
-    <t>vandaag</t>
-  </si>
-  <si>
-    <t>PO mechanica</t>
-  </si>
-  <si>
     <t>huidigStartjaar</t>
   </si>
   <si>
-    <t>H7 en 8 - Kracht en beweging</t>
+    <t>H4 en H5 - Trillen, golven en radioactiviteit</t>
   </si>
   <si>
     <t>huidigSchooljaar</t>
@@ -933,7 +933,34 @@
     <t>groep</t>
   </si>
   <si>
+    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel.</t>
+  </si>
+  <si>
     <t>mavo?</t>
+  </si>
+  <si>
+    <t>H3 - Elektriciteit 1</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>Automaten</t>
+  </si>
+  <si>
+    <t>H1 en 2  - Bewegen</t>
+  </si>
+  <si>
+    <t>H3, 6 en 9 - Elektriciteit en licht</t>
+  </si>
+  <si>
+    <t>B3, G1</t>
+  </si>
+  <si>
+    <t>PO mechanica</t>
+  </si>
+  <si>
+    <t>H7 en 8 - Kracht en beweging</t>
   </si>
   <si>
     <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
@@ -945,10 +972,7 @@
     <t>C, D1</t>
   </si>
   <si>
-    <t>Mterialen</t>
-  </si>
-  <si>
-    <t>D2, I2</t>
+    <t>Materialen</t>
   </si>
   <si>
     <t>H5, H10, H14, H15 - Trillen, straling, zonnestelsel</t>
@@ -957,7 +981,16 @@
     <t>B2, E1</t>
   </si>
   <si>
+    <t>Mterialen</t>
+  </si>
+  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Stoffen en materialen</t>
+  </si>
+  <si>
+    <t>E1, I1, I3</t>
   </si>
   <si>
     <t>PO bewegen in grafieken</t>
@@ -970,12 +1003,6 @@
   </si>
   <si>
     <t>H4 en 6 - krachten</t>
-  </si>
-  <si>
-    <t>Stoffen en materialen</t>
-  </si>
-  <si>
-    <t>E1, I1, I3</t>
   </si>
   <si>
     <t>H1,2,4,6,7 - mechanica</t>
@@ -2244,7 +2271,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2410,14 +2437,14 @@
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2462,7 +2489,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2478,7 +2505,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2493,7 +2520,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>65</v>
@@ -2597,7 +2624,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>7</v>
@@ -2611,7 +2638,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2656,7 +2683,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2672,7 +2699,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2694,7 +2721,7 @@
         <v>70</v>
       </c>
       <c r="I9" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>7</v>
@@ -2704,17 +2731,13 @@
         <v>100</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="46">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32" t="s">
-        <v>71</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2778,24 +2801,24 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602303241</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2">
         <v>863</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>19</v>
@@ -2803,13 +2826,17 @@
       <c r="K10" s="30"/>
       <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="46">
+        <v>2</v>
+      </c>
       <c r="O10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="32"/>
+      <c r="P10" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -2852,7 +2879,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -2868,7 +2895,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -2890,7 +2917,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>7</v>
@@ -2904,7 +2931,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2949,7 +2976,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -2965,7 +2992,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -3038,7 +3065,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -3062,7 +3091,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4532,7 +4561,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4688,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4705,7 +4734,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4750,7 +4779,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4766,7 +4795,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4784,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4804,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4882,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4899,7 +4928,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4944,7 +4973,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4960,7 +4989,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4979,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -4998,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
@@ -5066,11 +5095,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2">
         <v>214</v>
@@ -5080,7 +5109,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I10" s="45">
         <v>1</v>
@@ -5095,7 +5124,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5140,7 +5169,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -5156,7 +5185,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -5175,7 +5204,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5192,7 +5221,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5237,7 +5266,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -5253,7 +5282,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -5327,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5352,7 +5381,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5458,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5475,10 +5504,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5550,7 +5579,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5568,7 +5597,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5640,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5657,10 +5686,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -6018,7 +6047,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -7346,11 +7377,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7616,7 +7647,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7722,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7739,10 +7770,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7814,7 +7845,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7832,7 +7863,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7904,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7921,10 +7952,10 @@
         <v>4</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8283,7 +8314,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9116,7 +9147,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9262,7 +9293,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>873</v>
@@ -9272,22 +9303,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="45">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9332,7 +9365,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9348,7 +9381,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9363,13 +9396,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="I7" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>7</v>
@@ -9383,7 +9416,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9428,7 +9461,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9444,7 +9477,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9459,13 +9492,13 @@
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="45">
         <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="45">
-        <v>1</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>7</v>
@@ -9479,7 +9512,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9524,7 +9557,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9540,7 +9573,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9559,26 +9592,28 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="45">
-        <v>100</v>
-      </c>
+      <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N9" s="46">
+        <v>2</v>
+      </c>
       <c r="O9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="32"/>
+      <c r="P9" s="32" t="s">
+        <v>98</v>
+      </c>
       <c r="R9" s="7">
         <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9621,7 +9656,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9637,16 +9672,16 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2">
         <v>877</v>
@@ -9656,28 +9691,26 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I10" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="45">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="46">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>93</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -9747,32 +9780,24 @@
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
         <v>2020</v>
       </c>
-      <c r="D11" s="2">
-        <v>878</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="27">
-        <v>4</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="45">
-        <v>3</v>
-      </c>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="45"/>
       <c r="J11" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K11" s="30"/>
-      <c r="L11" s="45">
-        <v>100</v>
-      </c>
+      <c r="L11" s="45"/>
       <c r="M11" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9817,7 +9842,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -9833,7 +9858,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -9906,7 +9931,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -9930,7 +9957,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11402,7 +11429,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11548,7 +11575,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>219</v>
@@ -11558,7 +11585,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11573,7 +11600,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11618,7 +11645,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11634,7 +11661,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11652,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11669,7 +11696,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11714,7 +11741,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11730,7 +11757,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11748,7 +11775,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -11765,7 +11792,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11810,7 +11837,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11826,7 +11853,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11845,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11862,7 +11889,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11907,7 +11934,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11923,16 +11950,16 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2">
         <v>223</v>
@@ -11942,7 +11969,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11962,7 +11989,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12041,7 +12068,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -12058,7 +12085,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12103,7 +12130,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -12119,7 +12146,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -12193,7 +12220,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12218,7 +12245,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12324,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12341,7 +12368,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12386,7 +12413,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -12402,7 +12429,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -12414,7 +12441,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12431,7 +12458,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12476,7 +12503,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -12492,7 +12519,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -12504,7 +12531,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -12521,7 +12548,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12566,7 +12593,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -12582,7 +12609,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -12594,7 +12621,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -12614,7 +12641,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -12686,7 +12713,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -12705,10 +12732,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12902,7 +12929,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -13736,7 +13765,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13882,7 +13911,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14232,11 +14261,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14502,7 +14531,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14608,7 +14637,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14625,7 +14654,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14670,7 +14699,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -14686,7 +14715,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14698,7 +14727,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14715,7 +14744,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14760,7 +14789,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -14776,7 +14805,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -14788,7 +14817,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -14805,7 +14834,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14850,7 +14879,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -14866,7 +14895,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -14878,7 +14907,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I21" s="45">
         <v>1</v>
@@ -14898,7 +14927,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -14970,7 +14999,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -14989,10 +15018,10 @@
         <v>2</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15187,7 +15216,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15311,7 +15340,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45">
         <v>4</v>
@@ -15330,10 +15359,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15405,7 +15434,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I31" s="45">
         <v>3</v>
@@ -15424,10 +15453,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15499,7 +15528,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I32" s="45">
         <v>4</v>
@@ -15518,10 +15547,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15849,7 +15878,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>79</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -16204,7 +16235,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16554,11 +16585,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16824,7 +16855,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17585,7 +17616,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="I30" s="45">
         <v>4</v>
@@ -17604,10 +17635,10 @@
         <v>4</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17679,7 +17710,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I31" s="45">
         <v>3</v>
@@ -17698,10 +17729,10 @@
         <v>3</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17773,7 +17804,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I32" s="45">
         <v>4</v>
@@ -17792,10 +17823,10 @@
         <v>4</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18124,7 +18155,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/NA_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/NA_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>H1 - Beweging</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -940,9 +943,6 @@
   </si>
   <si>
     <t>H3 - Elektriciteit 1</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Automaten</t>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2510,7 +2510,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2523,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2543,7 +2543,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>224</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2704,7 +2704,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2801,11 +2801,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2">
         <v>863</v>
@@ -2815,7 +2815,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2835,7 +2835,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2914,7 +2914,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2997,7 +2997,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3059,14 +3059,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4800,7 +4800,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4833,7 +4833,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R7" s="7">
         <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>62</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4994,7 +4994,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5095,11 +5095,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2">
         <v>214</v>
@@ -5124,7 +5124,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5190,7 +5190,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5287,7 +5287,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5310,7 +5310,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5597,7 +5597,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>63</v>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7377,11 +7377,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7617,7 +7617,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7863,7 +7863,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9386,7 +9386,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9399,7 +9399,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -9416,7 +9416,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9482,7 +9482,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>225</v>
@@ -9495,7 +9495,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -9512,7 +9512,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9578,7 +9578,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9677,11 +9677,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2">
         <v>877</v>
@@ -9691,7 +9691,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -9708,7 +9708,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9774,7 +9774,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9886,7 +9886,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9925,14 +9925,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9957,7 +9957,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11600,7 +11600,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11666,7 +11666,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11696,7 +11696,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11762,7 +11762,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>64</v>
@@ -11792,7 +11792,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11858,7 +11858,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11955,11 +11955,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766087963</v>
       </c>
       <c r="D10" s="2">
         <v>223</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12151,7 +12151,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12213,7 +12213,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12245,7 +12245,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12930,7 +12930,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13996,7 +13996,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>65</v>
@@ -14172,7 +14172,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14261,11 +14261,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14439,7 +14439,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14501,7 +14501,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14744,7 +14744,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14834,7 +14834,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -15879,7 +15879,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16320,7 +16320,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16408,7 +16408,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>66</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16585,11 +16585,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16674,7 +16674,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16763,7 +16763,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16786,7 +16786,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16825,7 +16825,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
